--- a/Jogos_do_Dia/2023-02-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -1019,13 +1019,13 @@
         <v>79</v>
       </c>
       <c r="F4">
-        <v>1.66</v>
+        <v>1.73</v>
       </c>
       <c r="G4">
-        <v>3.49</v>
+        <v>3.94</v>
       </c>
       <c r="H4">
-        <v>4.17</v>
+        <v>4.42</v>
       </c>
       <c r="I4">
         <v>1.03</v>
@@ -1040,10 +1040,10 @@
         <v>3.8</v>
       </c>
       <c r="M4">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="N4">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="O4">
         <v>1.33</v>
@@ -1123,13 +1123,13 @@
         <v>80</v>
       </c>
       <c r="F5">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="G5">
         <v>2.75</v>
       </c>
       <c r="H5">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="I5">
         <v>1.08</v>
@@ -1144,10 +1144,10 @@
         <v>2.6</v>
       </c>
       <c r="M5">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O5">
         <v>1.52</v>
@@ -1227,13 +1227,13 @@
         <v>81</v>
       </c>
       <c r="F6">
-        <v>3.65</v>
+        <v>4.33</v>
       </c>
       <c r="G6">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H6">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="I6">
         <v>1.1</v>
@@ -1248,10 +1248,10 @@
         <v>2.55</v>
       </c>
       <c r="M6">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O6">
         <v>1.53</v>
@@ -1331,10 +1331,10 @@
         <v>82</v>
       </c>
       <c r="F7">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="G7">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="H7">
         <v>2.6</v>
@@ -1346,10 +1346,10 @@
         <v>6.4</v>
       </c>
       <c r="K7">
-        <v>1.44</v>
+        <v>1.49</v>
       </c>
       <c r="L7">
-        <v>2.6</v>
+        <v>2.51</v>
       </c>
       <c r="M7">
         <v>2.4</v>
@@ -1435,13 +1435,13 @@
         <v>83</v>
       </c>
       <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
         <v>3.25</v>
       </c>
-      <c r="G8">
-        <v>3.15</v>
-      </c>
       <c r="H8">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="I8">
         <v>1.07</v>
@@ -1456,10 +1456,10 @@
         <v>3</v>
       </c>
       <c r="M8">
-        <v>1.92</v>
+        <v>2.14</v>
       </c>
       <c r="N8">
-        <v>1.84</v>
+        <v>1.71</v>
       </c>
       <c r="O8">
         <v>1.44</v>
@@ -1539,13 +1539,13 @@
         <v>84</v>
       </c>
       <c r="F9">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="G9">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="H9">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="I9">
         <v>1.04</v>
@@ -1560,10 +1560,10 @@
         <v>3.4</v>
       </c>
       <c r="M9">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="O9">
         <v>1.4</v>
@@ -1643,13 +1643,13 @@
         <v>85</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="G10">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H10">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="I10">
         <v>1.01</v>
@@ -1664,10 +1664,10 @@
         <v>3.78</v>
       </c>
       <c r="M10">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="O10">
         <v>1.33</v>
@@ -1747,13 +1747,13 @@
         <v>86</v>
       </c>
       <c r="F11">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="G11">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H11">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="I11">
         <v>1.02</v>
@@ -1768,10 +1768,10 @@
         <v>3.25</v>
       </c>
       <c r="M11">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="N11">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="O11">
         <v>1.4</v>
@@ -1851,7 +1851,7 @@
         <v>87</v>
       </c>
       <c r="F12">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="G12">
         <v>3.2</v>
@@ -2166,10 +2166,10 @@
         <v>1.2</v>
       </c>
       <c r="G15">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="H15">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I15">
         <v>1.01</v>
@@ -2267,13 +2267,13 @@
         <v>91</v>
       </c>
       <c r="F16">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="G16">
-        <v>4.05</v>
+        <v>4.33</v>
       </c>
       <c r="H16">
-        <v>6.75</v>
+        <v>8</v>
       </c>
       <c r="I16">
         <v>1.05</v>
@@ -2288,10 +2288,10 @@
         <v>3.6</v>
       </c>
       <c r="M16">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="N16">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="O16">
         <v>1.4</v>
@@ -2371,13 +2371,13 @@
         <v>92</v>
       </c>
       <c r="F17">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="G17">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H17">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="I17">
         <v>1.05</v>
@@ -2392,10 +2392,10 @@
         <v>2.82</v>
       </c>
       <c r="M17">
-        <v>2.01</v>
+        <v>2.33</v>
       </c>
       <c r="N17">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="O17">
         <v>1.49</v>
@@ -2475,13 +2475,13 @@
         <v>93</v>
       </c>
       <c r="F18">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="G18">
-        <v>3.35</v>
+        <v>3.6</v>
       </c>
       <c r="H18">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="I18">
         <v>1.05</v>
@@ -2490,16 +2490,16 @@
         <v>7.4</v>
       </c>
       <c r="K18">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="L18">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="M18">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="N18">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="O18">
         <v>1.5</v>
@@ -2579,13 +2579,13 @@
         <v>94</v>
       </c>
       <c r="F19">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="G19">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="H19">
-        <v>4.05</v>
+        <v>5</v>
       </c>
       <c r="I19">
         <v>1.05</v>
@@ -2600,10 +2600,10 @@
         <v>3.4</v>
       </c>
       <c r="M19">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="N19">
-        <v>1.81</v>
+        <v>1.72</v>
       </c>
       <c r="O19">
         <v>1.44</v>
@@ -2683,13 +2683,13 @@
         <v>95</v>
       </c>
       <c r="F20">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="G20">
-        <v>3.73</v>
+        <v>3.8</v>
       </c>
       <c r="H20">
-        <v>5.91</v>
+        <v>5.5</v>
       </c>
       <c r="I20">
         <v>1.08</v>
@@ -2704,10 +2704,10 @@
         <v>2.9</v>
       </c>
       <c r="M20">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="N20">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="O20">
         <v>1.5</v>
@@ -2891,10 +2891,10 @@
         <v>97</v>
       </c>
       <c r="F22">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="G22">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H22">
         <v>1.95</v>
@@ -2912,10 +2912,10 @@
         <v>3.25</v>
       </c>
       <c r="M22">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="N22">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="O22">
         <v>1.4</v>
@@ -3016,10 +3016,10 @@
         <v>3.17</v>
       </c>
       <c r="M23">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="O23">
         <v>1.42</v>
@@ -3307,13 +3307,13 @@
         <v>101</v>
       </c>
       <c r="F26">
-        <v>2.7</v>
+        <v>3.02</v>
       </c>
       <c r="G26">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H26">
-        <v>2.37</v>
+        <v>2.11</v>
       </c>
       <c r="I26">
         <v>1.06</v>
@@ -3328,10 +3328,10 @@
         <v>3.25</v>
       </c>
       <c r="M26">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="N26">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="O26">
         <v>1.4</v>
@@ -3411,13 +3411,13 @@
         <v>102</v>
       </c>
       <c r="F27">
-        <v>3.1</v>
+        <v>3.24</v>
       </c>
       <c r="G27">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="H27">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="I27">
         <v>1.08</v>
@@ -3432,10 +3432,10 @@
         <v>2.75</v>
       </c>
       <c r="M27">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="N27">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="O27">
         <v>1.44</v>

--- a/Jogos_do_Dia/2023-02-27_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-27_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="106">
   <si>
     <t>League</t>
   </si>
@@ -124,6 +124,9 @@
     <t>USA MLS</t>
   </si>
   <si>
+    <t>Serbia SuperLiga</t>
+  </si>
+  <si>
     <t>Egypt Egyptian Premier League</t>
   </si>
   <si>
@@ -178,6 +181,9 @@
     <t>Seattle Sounders</t>
   </si>
   <si>
+    <t>Partizan</t>
+  </si>
+  <si>
     <t>Ghazl El Mehalla</t>
   </si>
   <si>
@@ -254,6 +260,9 @@
   </si>
   <si>
     <t>Colorado Rapids</t>
+  </si>
+  <si>
+    <t>Radnički Kragujevac</t>
   </si>
   <si>
     <t>Aswan FC</t>
@@ -684,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH27"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -805,10 +814,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F2">
         <v>2.6</v>
@@ -862,7 +871,7 @@
         <v>1</v>
       </c>
       <c r="W2">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="X2">
         <v>2.03</v>
@@ -909,10 +918,10 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F3">
         <v>2.3</v>
@@ -963,10 +972,10 @@
         <v>1.61</v>
       </c>
       <c r="V3">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="W3">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="X3">
         <v>1.49</v>
@@ -1013,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F4">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G4">
-        <v>3.94</v>
+        <v>3.85</v>
       </c>
       <c r="H4">
-        <v>4.42</v>
+        <v>4.2</v>
       </c>
       <c r="I4">
         <v>1.03</v>
@@ -1040,10 +1049,10 @@
         <v>3.8</v>
       </c>
       <c r="M4">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="N4">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
         <v>1.33</v>
@@ -1067,7 +1076,7 @@
         <v>1.95</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1114,100 +1123,100 @@
         <v>44984.41666666666</v>
       </c>
       <c r="C5">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5">
+        <v>1.25</v>
+      </c>
+      <c r="G5">
+        <v>5.75</v>
+      </c>
+      <c r="H5">
+        <v>7.5</v>
+      </c>
+      <c r="I5">
+        <v>1.02</v>
+      </c>
+      <c r="J5">
         <v>20</v>
       </c>
-      <c r="D5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5">
-        <v>2.8</v>
-      </c>
-      <c r="G5">
-        <v>2.75</v>
-      </c>
-      <c r="H5">
-        <v>2.63</v>
-      </c>
-      <c r="I5">
+      <c r="K5">
+        <v>1.17</v>
+      </c>
+      <c r="L5">
+        <v>4.83</v>
+      </c>
+      <c r="M5">
+        <v>1.57</v>
+      </c>
+      <c r="N5">
+        <v>2.15</v>
+      </c>
+      <c r="O5">
+        <v>1.27</v>
+      </c>
+      <c r="P5">
+        <v>3.5</v>
+      </c>
+      <c r="Q5">
+        <v>2.1</v>
+      </c>
+      <c r="R5">
+        <v>1.7</v>
+      </c>
+      <c r="S5">
+        <v>1.06</v>
+      </c>
+      <c r="T5">
         <v>1.08</v>
       </c>
-      <c r="J5">
-        <v>6.4</v>
-      </c>
-      <c r="K5">
-        <v>1.43</v>
-      </c>
-      <c r="L5">
-        <v>2.6</v>
-      </c>
-      <c r="M5">
-        <v>2.38</v>
-      </c>
-      <c r="N5">
-        <v>1.52</v>
-      </c>
-      <c r="O5">
-        <v>1.52</v>
-      </c>
-      <c r="P5">
-        <v>2.43</v>
-      </c>
-      <c r="Q5">
-        <v>1.94</v>
-      </c>
-      <c r="R5">
-        <v>1.8</v>
-      </c>
-      <c r="S5">
-        <v>1.42</v>
-      </c>
-      <c r="T5">
-        <v>1.38</v>
-      </c>
       <c r="U5">
-        <v>1.37</v>
+        <v>3.75</v>
       </c>
       <c r="V5">
-        <v>1.6</v>
+        <v>1.91</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="X5">
-        <v>1.44</v>
+        <v>2.17</v>
       </c>
       <c r="Y5">
-        <v>1.09</v>
+        <v>1.36</v>
       </c>
       <c r="Z5">
-        <v>2.53</v>
+        <v>3.53</v>
       </c>
       <c r="AA5">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>2.33</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -1215,311 +1224,311 @@
         <v>37</v>
       </c>
       <c r="B6" s="2">
-        <v>44984.52083333334</v>
+        <v>44984.41666666666</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F6">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="G6">
+        <v>2.8</v>
+      </c>
+      <c r="H6">
+        <v>2.9</v>
+      </c>
+      <c r="I6">
+        <v>1.08</v>
+      </c>
+      <c r="J6">
+        <v>6.4</v>
+      </c>
+      <c r="K6">
+        <v>1.43</v>
+      </c>
+      <c r="L6">
+        <v>2.6</v>
+      </c>
+      <c r="M6">
+        <v>2.35</v>
+      </c>
+      <c r="N6">
+        <v>1.55</v>
+      </c>
+      <c r="O6">
+        <v>1.52</v>
+      </c>
+      <c r="P6">
+        <v>2.43</v>
+      </c>
+      <c r="Q6">
+        <v>1.94</v>
+      </c>
+      <c r="R6">
+        <v>1.8</v>
+      </c>
+      <c r="S6">
+        <v>1.42</v>
+      </c>
+      <c r="T6">
+        <v>1.38</v>
+      </c>
+      <c r="U6">
+        <v>1.37</v>
+      </c>
+      <c r="V6">
+        <v>1.6</v>
+      </c>
+      <c r="W6">
+        <v>1</v>
+      </c>
+      <c r="X6">
+        <v>1.44</v>
+      </c>
+      <c r="Y6">
+        <v>1.09</v>
+      </c>
+      <c r="Z6">
+        <v>2.53</v>
+      </c>
+      <c r="AA6">
+        <v>1.95</v>
+      </c>
+      <c r="AB6">
+        <v>7.5</v>
+      </c>
+      <c r="AC6">
+        <v>2.15</v>
+      </c>
+      <c r="AD6">
+        <v>1.24</v>
+      </c>
+      <c r="AE6">
+        <v>1.48</v>
+      </c>
+      <c r="AF6">
+        <v>1.8</v>
+      </c>
+      <c r="AG6">
+        <v>2.33</v>
+      </c>
+      <c r="AH6">
         <v>3.1</v>
-      </c>
-      <c r="H6">
-        <v>1.8</v>
-      </c>
-      <c r="I6">
-        <v>1.1</v>
-      </c>
-      <c r="J6">
-        <v>6.5</v>
-      </c>
-      <c r="K6">
-        <v>1.48</v>
-      </c>
-      <c r="L6">
-        <v>2.55</v>
-      </c>
-      <c r="M6">
-        <v>2.45</v>
-      </c>
-      <c r="N6">
-        <v>1.52</v>
-      </c>
-      <c r="O6">
-        <v>1.53</v>
-      </c>
-      <c r="P6">
-        <v>2.38</v>
-      </c>
-      <c r="Q6">
-        <v>2.2</v>
-      </c>
-      <c r="R6">
-        <v>1.62</v>
-      </c>
-      <c r="S6">
-        <v>1.85</v>
-      </c>
-      <c r="T6">
-        <v>1.3</v>
-      </c>
-      <c r="U6">
-        <v>1.2</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>1.5</v>
-      </c>
-      <c r="X6">
-        <v>1.3</v>
-      </c>
-      <c r="Y6">
-        <v>1.43</v>
-      </c>
-      <c r="Z6">
-        <v>2.73</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:34">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2">
-        <v>44984.58333333334</v>
+        <v>44984.52083333334</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F7">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="G7">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="H7">
-        <v>2.6</v>
+        <v>1.83</v>
       </c>
       <c r="I7">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="J7">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="K7">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="L7">
-        <v>2.51</v>
+        <v>2.55</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="N7">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="O7">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P7">
         <v>2.38</v>
       </c>
       <c r="Q7">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="R7">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S7">
-        <v>1.37</v>
+        <v>1.85</v>
       </c>
       <c r="T7">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
       <c r="U7">
-        <v>1.41</v>
+        <v>1.2</v>
       </c>
       <c r="V7">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X7">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="Y7">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="Z7">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
       <c r="AA7">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>1.24</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>3.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:34">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2">
-        <v>44984.60416666666</v>
+        <v>44984.58333333334</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="G8">
-        <v>3.25</v>
+        <v>2.7</v>
       </c>
       <c r="H8">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="I8">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J8">
-        <v>9</v>
+        <v>6.4</v>
       </c>
       <c r="K8">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>2.51</v>
       </c>
       <c r="M8">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="N8">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="O8">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="P8">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="Q8">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R8">
         <v>1.8</v>
       </c>
       <c r="S8">
-        <v>1.63</v>
+        <v>1.37</v>
       </c>
       <c r="T8">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
       <c r="U8">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="V8">
-        <v>1.08</v>
+        <v>1.22</v>
       </c>
       <c r="W8">
-        <v>0.82</v>
+        <v>1.44</v>
       </c>
       <c r="X8">
-        <v>1.52</v>
+        <v>1.32</v>
       </c>
       <c r="Y8">
-        <v>1.63</v>
+        <v>1.45</v>
       </c>
       <c r="Z8">
+        <v>2.77</v>
+      </c>
+      <c r="AA8">
+        <v>1.82</v>
+      </c>
+      <c r="AB8">
+        <v>7.6</v>
+      </c>
+      <c r="AC8">
+        <v>2.38</v>
+      </c>
+      <c r="AD8">
+        <v>1.24</v>
+      </c>
+      <c r="AE8">
+        <v>1.46</v>
+      </c>
+      <c r="AF8">
+        <v>1.8</v>
+      </c>
+      <c r="AG8">
+        <v>2.32</v>
+      </c>
+      <c r="AH8">
         <v>3.15</v>
-      </c>
-      <c r="AA8">
-        <v>2.85</v>
-      </c>
-      <c r="AB8">
-        <v>6.25</v>
-      </c>
-      <c r="AC8">
-        <v>1.65</v>
-      </c>
-      <c r="AD8">
-        <v>1.27</v>
-      </c>
-      <c r="AE8">
-        <v>1.52</v>
-      </c>
-      <c r="AF8">
-        <v>1.9</v>
-      </c>
-      <c r="AG8">
-        <v>2.55</v>
-      </c>
-      <c r="AH8">
-        <v>3.6</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1527,103 +1536,103 @@
         <v>39</v>
       </c>
       <c r="B9" s="2">
-        <v>44984.625</v>
+        <v>44984.60416666666</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <v>2.05</v>
+        <v>3.2</v>
       </c>
       <c r="G9">
         <v>3.3</v>
       </c>
       <c r="H9">
-        <v>3.5</v>
+        <v>2.31</v>
       </c>
       <c r="I9">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L9">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="M9">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="N9">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="O9">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P9">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q9">
+        <v>1.95</v>
+      </c>
+      <c r="R9">
         <v>1.8</v>
       </c>
-      <c r="R9">
-        <v>1.95</v>
-      </c>
       <c r="S9">
-        <v>1.29</v>
+        <v>1.63</v>
       </c>
       <c r="T9">
         <v>1.3</v>
       </c>
       <c r="U9">
-        <v>1.71</v>
+        <v>1.36</v>
       </c>
       <c r="V9">
-        <v>0.64</v>
+        <v>1.08</v>
       </c>
       <c r="W9">
-        <v>0.5</v>
+        <v>0.82</v>
       </c>
       <c r="X9">
-        <v>1.87</v>
+        <v>1.52</v>
       </c>
       <c r="Y9">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="Z9">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AA9">
-        <v>1.61</v>
+        <v>2.85</v>
       </c>
       <c r="AB9">
-        <v>8</v>
+        <v>6.25</v>
       </c>
       <c r="AC9">
-        <v>2.95</v>
+        <v>1.65</v>
       </c>
       <c r="AD9">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AE9">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="AF9">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AG9">
-        <v>2.44</v>
+        <v>2.55</v>
       </c>
       <c r="AH9">
-        <v>3.28</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="10" spans="1:34">
@@ -1634,100 +1643,100 @@
         <v>44984.625</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F10">
         <v>2.05</v>
       </c>
       <c r="G10">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H10">
         <v>3.3</v>
       </c>
       <c r="I10">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="J10">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="L10">
-        <v>3.78</v>
+        <v>3.4</v>
       </c>
       <c r="M10">
-        <v>1.76</v>
+        <v>2.13</v>
       </c>
       <c r="N10">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="O10">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P10">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q10">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="R10">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S10">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T10">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U10">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="V10">
-        <v>1</v>
+        <v>0.64</v>
       </c>
       <c r="W10">
-        <v>1.13</v>
+        <v>0.5</v>
       </c>
       <c r="X10">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="Y10">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="Z10">
-        <v>3.62</v>
+        <v>3.3</v>
       </c>
       <c r="AA10">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="AB10">
         <v>8</v>
       </c>
       <c r="AC10">
-        <v>2.39</v>
+        <v>2.95</v>
       </c>
       <c r="AD10">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AE10">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="AF10">
-        <v>1.68</v>
+        <v>1.88</v>
       </c>
       <c r="AG10">
-        <v>2.2</v>
+        <v>2.44</v>
       </c>
       <c r="AH10">
-        <v>2.95</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="11" spans="1:34">
@@ -1738,100 +1747,100 @@
         <v>44984.625</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F11">
-        <v>2.37</v>
+        <v>2.01</v>
       </c>
       <c r="G11">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="H11">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="I11">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="J11">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="K11">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="L11">
+        <v>3.78</v>
+      </c>
+      <c r="M11">
+        <v>1.74</v>
+      </c>
+      <c r="N11">
+        <v>2.09</v>
+      </c>
+      <c r="O11">
+        <v>1.33</v>
+      </c>
+      <c r="P11">
         <v>3.25</v>
       </c>
-      <c r="M11">
-        <v>1.84</v>
-      </c>
-      <c r="N11">
-        <v>1.9</v>
-      </c>
-      <c r="O11">
-        <v>1.4</v>
-      </c>
-      <c r="P11">
-        <v>2.82</v>
-      </c>
       <c r="Q11">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R11">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S11">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="T11">
         <v>1.29</v>
       </c>
       <c r="U11">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="V11">
-        <v>1.55</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>1.64</v>
+        <v>1.13</v>
       </c>
       <c r="X11">
+        <v>1.97</v>
+      </c>
+      <c r="Y11">
+        <v>1.65</v>
+      </c>
+      <c r="Z11">
+        <v>3.62</v>
+      </c>
+      <c r="AA11">
+        <v>1.82</v>
+      </c>
+      <c r="AB11">
+        <v>8</v>
+      </c>
+      <c r="AC11">
+        <v>2.39</v>
+      </c>
+      <c r="AD11">
+        <v>1.2</v>
+      </c>
+      <c r="AE11">
         <v>1.39</v>
       </c>
-      <c r="Y11">
-        <v>1.3</v>
-      </c>
-      <c r="Z11">
-        <v>2.69</v>
-      </c>
-      <c r="AA11">
-        <v>1.87</v>
-      </c>
-      <c r="AB11">
-        <v>7.5</v>
-      </c>
-      <c r="AC11">
-        <v>2.29</v>
-      </c>
-      <c r="AD11">
-        <v>1.24</v>
-      </c>
-      <c r="AE11">
-        <v>1.5</v>
-      </c>
       <c r="AF11">
-        <v>1.81</v>
+        <v>1.68</v>
       </c>
       <c r="AG11">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="AH11">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="12" spans="1:34">
@@ -1842,100 +1851,100 @@
         <v>44984.625</v>
       </c>
       <c r="C12">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12">
-        <v>3.9</v>
+        <v>2.38</v>
       </c>
       <c r="G12">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="I12">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="J12">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K12">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="L12">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="M12">
-        <v>2.5</v>
+        <v>1.85</v>
       </c>
       <c r="N12">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="O12">
+        <v>1.4</v>
+      </c>
+      <c r="P12">
+        <v>2.82</v>
+      </c>
+      <c r="Q12">
+        <v>1.67</v>
+      </c>
+      <c r="R12">
+        <v>2.1</v>
+      </c>
+      <c r="S12">
+        <v>1.38</v>
+      </c>
+      <c r="T12">
+        <v>1.29</v>
+      </c>
+      <c r="U12">
+        <v>1.56</v>
+      </c>
+      <c r="V12">
         <v>1.55</v>
       </c>
-      <c r="P12">
-        <v>2.3</v>
-      </c>
-      <c r="Q12">
-        <v>2.36</v>
-      </c>
-      <c r="R12">
-        <v>1.56</v>
-      </c>
-      <c r="S12">
-        <v>2.15</v>
-      </c>
-      <c r="T12">
+      <c r="W12">
+        <v>1.64</v>
+      </c>
+      <c r="X12">
+        <v>1.39</v>
+      </c>
+      <c r="Y12">
         <v>1.3</v>
       </c>
-      <c r="U12">
-        <v>1.14</v>
-      </c>
-      <c r="V12">
-        <v>1.62</v>
-      </c>
-      <c r="W12">
-        <v>2</v>
-      </c>
-      <c r="X12">
-        <v>1.34</v>
-      </c>
-      <c r="Y12">
-        <v>1.47</v>
-      </c>
       <c r="Z12">
-        <v>2.81</v>
+        <v>2.69</v>
       </c>
       <c r="AA12">
-        <v>3.7</v>
+        <v>1.87</v>
       </c>
       <c r="AB12">
         <v>7.5</v>
       </c>
       <c r="AC12">
-        <v>1.42</v>
+        <v>2.29</v>
       </c>
       <c r="AD12">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="AE12">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AF12">
-        <v>2.34</v>
+        <v>1.81</v>
       </c>
       <c r="AG12">
-        <v>3.18</v>
+        <v>2.21</v>
       </c>
       <c r="AH12">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="13" spans="1:34">
@@ -1943,108 +1952,108 @@
         <v>43</v>
       </c>
       <c r="B13" s="2">
-        <v>44984.66666666666</v>
+        <v>44984.625</v>
       </c>
       <c r="C13">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13">
+        <v>3.5</v>
+      </c>
+      <c r="G13">
+        <v>3.4</v>
+      </c>
+      <c r="H13">
+        <v>1.95</v>
+      </c>
+      <c r="I13">
+        <v>1.09</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>1.5</v>
+      </c>
+      <c r="L13">
+        <v>2.43</v>
+      </c>
+      <c r="M13">
+        <v>2.5</v>
+      </c>
+      <c r="N13">
+        <v>1.5</v>
+      </c>
+      <c r="O13">
+        <v>1.55</v>
+      </c>
+      <c r="P13">
         <v>2.3</v>
       </c>
-      <c r="G13">
-        <v>3.66</v>
-      </c>
-      <c r="H13">
-        <v>2.93</v>
-      </c>
-      <c r="I13">
-        <v>1.03</v>
-      </c>
-      <c r="J13">
-        <v>16</v>
-      </c>
-      <c r="K13">
-        <v>1.19</v>
-      </c>
-      <c r="L13">
-        <v>4.3</v>
-      </c>
-      <c r="M13">
+      <c r="Q13">
+        <v>2.36</v>
+      </c>
+      <c r="R13">
+        <v>1.56</v>
+      </c>
+      <c r="S13">
+        <v>2.15</v>
+      </c>
+      <c r="T13">
+        <v>1.3</v>
+      </c>
+      <c r="U13">
+        <v>1.14</v>
+      </c>
+      <c r="V13">
         <v>1.62</v>
       </c>
-      <c r="N13">
-        <v>2.15</v>
-      </c>
-      <c r="O13">
-        <v>1.32</v>
-      </c>
-      <c r="P13">
-        <v>3.25</v>
-      </c>
-      <c r="Q13">
-        <v>1.5</v>
-      </c>
-      <c r="R13">
-        <v>2.5</v>
-      </c>
-      <c r="S13">
-        <v>1.38</v>
-      </c>
-      <c r="T13">
-        <v>1.25</v>
-      </c>
-      <c r="U13">
-        <v>1.62</v>
-      </c>
-      <c r="V13">
-        <v>1.33</v>
-      </c>
       <c r="W13">
-        <v>1.08</v>
+        <v>2</v>
       </c>
       <c r="X13">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Y13">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="Z13">
-        <v>2.64</v>
+        <v>2.81</v>
       </c>
       <c r="AA13">
-        <v>1.93</v>
+        <v>3.7</v>
       </c>
       <c r="AB13">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC13">
-        <v>2.36</v>
+        <v>1.42</v>
       </c>
       <c r="AD13">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="AE13">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AF13">
-        <v>1.8</v>
+        <v>2.34</v>
       </c>
       <c r="AG13">
-        <v>2.29</v>
+        <v>3.18</v>
       </c>
       <c r="AH13">
-        <v>3.04</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:34">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="2">
         <v>44984.66666666666</v>
@@ -2053,97 +2062,97 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F14">
-        <v>5.76</v>
+        <v>2.3</v>
       </c>
       <c r="G14">
-        <v>4.94</v>
+        <v>3.66</v>
       </c>
       <c r="H14">
-        <v>1.47</v>
+        <v>2.93</v>
       </c>
       <c r="I14">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K14">
+        <v>1.19</v>
+      </c>
+      <c r="L14">
+        <v>4.3</v>
+      </c>
+      <c r="M14">
+        <v>1.62</v>
+      </c>
+      <c r="N14">
+        <v>2.15</v>
+      </c>
+      <c r="O14">
+        <v>1.32</v>
+      </c>
+      <c r="P14">
+        <v>3.25</v>
+      </c>
+      <c r="Q14">
+        <v>1.5</v>
+      </c>
+      <c r="R14">
+        <v>2.5</v>
+      </c>
+      <c r="S14">
+        <v>1.38</v>
+      </c>
+      <c r="T14">
+        <v>1.25</v>
+      </c>
+      <c r="U14">
+        <v>1.62</v>
+      </c>
+      <c r="V14">
+        <v>1.33</v>
+      </c>
+      <c r="W14">
         <v>1.08</v>
       </c>
-      <c r="L14">
+      <c r="X14">
+        <v>1.28</v>
+      </c>
+      <c r="Y14">
+        <v>1.36</v>
+      </c>
+      <c r="Z14">
+        <v>2.64</v>
+      </c>
+      <c r="AA14">
+        <v>1.93</v>
+      </c>
+      <c r="AB14">
         <v>7</v>
       </c>
-      <c r="M14">
-        <v>1.29</v>
-      </c>
-      <c r="N14">
-        <v>3.6</v>
-      </c>
-      <c r="O14">
+      <c r="AC14">
+        <v>2.36</v>
+      </c>
+      <c r="AD14">
         <v>1.22</v>
       </c>
-      <c r="P14">
-        <v>4</v>
-      </c>
-      <c r="Q14">
-        <v>1.4</v>
-      </c>
-      <c r="R14">
-        <v>2.75</v>
-      </c>
-      <c r="S14">
-        <v>2.6</v>
-      </c>
-      <c r="T14">
-        <v>1.17</v>
-      </c>
-      <c r="U14">
-        <v>1.12</v>
-      </c>
-      <c r="V14">
-        <v>2.25</v>
-      </c>
-      <c r="W14">
-        <v>2.33</v>
-      </c>
-      <c r="X14">
-        <v>1.29</v>
-      </c>
-      <c r="Y14">
-        <v>1.9</v>
-      </c>
-      <c r="Z14">
-        <v>3.19</v>
-      </c>
-      <c r="AA14">
-        <v>4.28</v>
-      </c>
-      <c r="AB14">
-        <v>9.4</v>
-      </c>
-      <c r="AC14">
-        <v>1.34</v>
-      </c>
-      <c r="AD14">
-        <v>1.21</v>
-      </c>
       <c r="AE14">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AF14">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="AG14">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AH14">
-        <v>2.84</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="15" spans="1:34">
@@ -2154,308 +2163,308 @@
         <v>44984.66666666666</v>
       </c>
       <c r="C15">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F15">
-        <v>1.2</v>
+        <v>5.76</v>
       </c>
       <c r="G15">
-        <v>6.5</v>
+        <v>4.94</v>
       </c>
       <c r="H15">
-        <v>12</v>
+        <v>1.47</v>
       </c>
       <c r="I15">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="J15">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K15">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="N15">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="O15">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P15">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="Q15">
-        <v>2.15</v>
+        <v>1.4</v>
       </c>
       <c r="R15">
-        <v>1.68</v>
+        <v>2.75</v>
       </c>
       <c r="S15">
-        <v>1.01</v>
+        <v>2.6</v>
       </c>
       <c r="T15">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="U15">
-        <v>4.33</v>
+        <v>1.12</v>
       </c>
       <c r="V15">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="W15">
-        <v>1</v>
+        <v>2.33</v>
       </c>
       <c r="X15">
-        <v>2.34</v>
+        <v>1.29</v>
       </c>
       <c r="Y15">
-        <v>1.41</v>
+        <v>1.9</v>
       </c>
       <c r="Z15">
-        <v>3.75</v>
+        <v>3.19</v>
       </c>
       <c r="AA15">
-        <v>1.19</v>
+        <v>4.28</v>
       </c>
       <c r="AB15">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AC15">
-        <v>5.65</v>
+        <v>1.34</v>
       </c>
       <c r="AD15">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="AE15">
-        <v>1.32</v>
+        <v>1.42</v>
       </c>
       <c r="AF15">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="AG15">
-        <v>1.99</v>
+        <v>2.17</v>
       </c>
       <c r="AH15">
-        <v>2.55</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="16" spans="1:34">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B16" s="2">
-        <v>44984.69791666666</v>
+        <v>44984.66666666666</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F16">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="G16">
+        <v>5.9</v>
+      </c>
+      <c r="H16">
+        <v>10.5</v>
+      </c>
+      <c r="I16">
+        <v>1.01</v>
+      </c>
+      <c r="J16">
+        <v>19</v>
+      </c>
+      <c r="K16">
+        <v>1.16</v>
+      </c>
+      <c r="L16">
+        <v>5</v>
+      </c>
+      <c r="M16">
+        <v>1.57</v>
+      </c>
+      <c r="N16">
+        <v>2.4</v>
+      </c>
+      <c r="O16">
+        <v>1.24</v>
+      </c>
+      <c r="P16">
+        <v>3.7</v>
+      </c>
+      <c r="Q16">
+        <v>2.15</v>
+      </c>
+      <c r="R16">
+        <v>1.68</v>
+      </c>
+      <c r="S16">
+        <v>1.01</v>
+      </c>
+      <c r="T16">
+        <v>1.08</v>
+      </c>
+      <c r="U16">
         <v>4.33</v>
       </c>
-      <c r="H16">
-        <v>8</v>
-      </c>
-      <c r="I16">
-        <v>1.05</v>
-      </c>
-      <c r="J16">
+      <c r="V16">
+        <v>2.4</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>2.34</v>
+      </c>
+      <c r="Y16">
+        <v>1.41</v>
+      </c>
+      <c r="Z16">
+        <v>3.75</v>
+      </c>
+      <c r="AA16">
+        <v>1.19</v>
+      </c>
+      <c r="AB16">
         <v>11</v>
       </c>
-      <c r="K16">
-        <v>1.3</v>
-      </c>
-      <c r="L16">
-        <v>3.6</v>
-      </c>
-      <c r="M16">
-        <v>1.92</v>
-      </c>
-      <c r="N16">
-        <v>1.88</v>
-      </c>
-      <c r="O16">
-        <v>1.4</v>
-      </c>
-      <c r="P16">
-        <v>2.75</v>
-      </c>
-      <c r="Q16">
-        <v>2.1</v>
-      </c>
-      <c r="R16">
-        <v>1.67</v>
-      </c>
-      <c r="S16">
-        <v>1.08</v>
-      </c>
-      <c r="T16">
-        <v>1.21</v>
-      </c>
-      <c r="U16">
-        <v>2.8</v>
-      </c>
-      <c r="V16">
-        <v>1.75</v>
-      </c>
-      <c r="W16">
-        <v>0.73</v>
-      </c>
-      <c r="X16">
-        <v>1.52</v>
-      </c>
-      <c r="Y16">
-        <v>1.49</v>
-      </c>
-      <c r="Z16">
-        <v>3.01</v>
-      </c>
-      <c r="AA16">
+      <c r="AC16">
+        <v>5.65</v>
+      </c>
+      <c r="AD16">
+        <v>1.15</v>
+      </c>
+      <c r="AE16">
         <v>1.32</v>
       </c>
-      <c r="AB16">
-        <v>7.5</v>
-      </c>
-      <c r="AC16">
-        <v>4.6</v>
-      </c>
-      <c r="AD16">
-        <v>1.3</v>
-      </c>
-      <c r="AE16">
-        <v>1.57</v>
-      </c>
       <c r="AF16">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="AG16">
-        <v>2.7</v>
+        <v>1.99</v>
       </c>
       <c r="AH16">
-        <v>3.9</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="17" spans="1:34">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2">
         <v>44984.69791666666</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17">
-        <v>2.7</v>
+        <v>1.39</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H17">
-        <v>2.7</v>
+        <v>8.9</v>
       </c>
       <c r="I17">
         <v>1.05</v>
       </c>
       <c r="J17">
-        <v>7.3</v>
+        <v>11</v>
       </c>
       <c r="K17">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="L17">
-        <v>2.82</v>
+        <v>3.6</v>
       </c>
       <c r="M17">
-        <v>2.33</v>
+        <v>1.98</v>
       </c>
       <c r="N17">
-        <v>1.57</v>
+        <v>1.92</v>
       </c>
       <c r="O17">
+        <v>1.4</v>
+      </c>
+      <c r="P17">
+        <v>2.75</v>
+      </c>
+      <c r="Q17">
+        <v>2.1</v>
+      </c>
+      <c r="R17">
+        <v>1.67</v>
+      </c>
+      <c r="S17">
+        <v>1.08</v>
+      </c>
+      <c r="T17">
+        <v>1.21</v>
+      </c>
+      <c r="U17">
+        <v>2.8</v>
+      </c>
+      <c r="V17">
+        <v>1.75</v>
+      </c>
+      <c r="W17">
+        <v>0.73</v>
+      </c>
+      <c r="X17">
+        <v>1.52</v>
+      </c>
+      <c r="Y17">
         <v>1.49</v>
-      </c>
-      <c r="P17">
-        <v>2.52</v>
-      </c>
-      <c r="Q17">
-        <v>1.88</v>
-      </c>
-      <c r="R17">
-        <v>1.8</v>
-      </c>
-      <c r="S17">
-        <v>1.49</v>
-      </c>
-      <c r="T17">
-        <v>1.33</v>
-      </c>
-      <c r="U17">
-        <v>1.42</v>
-      </c>
-      <c r="V17">
-        <v>1.64</v>
-      </c>
-      <c r="W17">
-        <v>1.5</v>
-      </c>
-      <c r="X17">
-        <v>1.72</v>
-      </c>
-      <c r="Y17">
-        <v>1.29</v>
       </c>
       <c r="Z17">
         <v>3.01</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="AD17">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="AE17">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="AF17">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AG17">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="AH17">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="18" spans="1:34">
@@ -2463,103 +2472,103 @@
         <v>46</v>
       </c>
       <c r="B18" s="2">
-        <v>44984.70833333334</v>
+        <v>44984.69791666666</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F18">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="G18">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="H18">
-        <v>6</v>
+        <v>2.37</v>
       </c>
       <c r="I18">
         <v>1.05</v>
       </c>
       <c r="J18">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="K18">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="L18">
-        <v>2.6</v>
+        <v>2.82</v>
       </c>
       <c r="M18">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="N18">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="O18">
+        <v>1.49</v>
+      </c>
+      <c r="P18">
+        <v>2.52</v>
+      </c>
+      <c r="Q18">
+        <v>1.88</v>
+      </c>
+      <c r="R18">
+        <v>1.8</v>
+      </c>
+      <c r="S18">
+        <v>1.49</v>
+      </c>
+      <c r="T18">
+        <v>1.33</v>
+      </c>
+      <c r="U18">
+        <v>1.42</v>
+      </c>
+      <c r="V18">
+        <v>1.64</v>
+      </c>
+      <c r="W18">
         <v>1.5</v>
       </c>
-      <c r="P18">
-        <v>2.5</v>
-      </c>
-      <c r="Q18">
-        <v>2.25</v>
-      </c>
-      <c r="R18">
-        <v>1.57</v>
-      </c>
-      <c r="S18">
-        <v>1.12</v>
-      </c>
-      <c r="T18">
-        <v>1.27</v>
-      </c>
-      <c r="U18">
-        <v>2.34</v>
-      </c>
-      <c r="V18">
-        <v>2.71</v>
-      </c>
-      <c r="W18">
-        <v>0.5</v>
-      </c>
       <c r="X18">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="Y18">
         <v>1.29</v>
       </c>
       <c r="Z18">
-        <v>2.9</v>
+        <v>3.01</v>
       </c>
       <c r="AA18">
-        <v>1.44</v>
+        <v>1.85</v>
       </c>
       <c r="AB18">
-        <v>8.699999999999999</v>
+        <v>7</v>
       </c>
       <c r="AC18">
-        <v>3.62</v>
+        <v>2.41</v>
       </c>
       <c r="AD18">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="AE18">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="AF18">
-        <v>2.05</v>
+        <v>2.4</v>
       </c>
       <c r="AG18">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="AH18">
-        <v>4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="19" spans="1:34">
@@ -2570,100 +2579,100 @@
         <v>44984.70833333334</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F19">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="G19">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="H19">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="I19">
         <v>1.05</v>
       </c>
       <c r="J19">
-        <v>11</v>
+        <v>7.4</v>
       </c>
       <c r="K19">
+        <v>1.48</v>
+      </c>
+      <c r="L19">
+        <v>2.45</v>
+      </c>
+      <c r="M19">
+        <v>2.35</v>
+      </c>
+      <c r="N19">
+        <v>1.55</v>
+      </c>
+      <c r="O19">
+        <v>1.5</v>
+      </c>
+      <c r="P19">
+        <v>2.5</v>
+      </c>
+      <c r="Q19">
+        <v>2.25</v>
+      </c>
+      <c r="R19">
+        <v>1.57</v>
+      </c>
+      <c r="S19">
+        <v>1.12</v>
+      </c>
+      <c r="T19">
+        <v>1.27</v>
+      </c>
+      <c r="U19">
+        <v>2.34</v>
+      </c>
+      <c r="V19">
+        <v>2.71</v>
+      </c>
+      <c r="W19">
+        <v>0.5</v>
+      </c>
+      <c r="X19">
+        <v>1.61</v>
+      </c>
+      <c r="Y19">
+        <v>1.29</v>
+      </c>
+      <c r="Z19">
+        <v>2.9</v>
+      </c>
+      <c r="AA19">
+        <v>1.44</v>
+      </c>
+      <c r="AB19">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AC19">
+        <v>3.62</v>
+      </c>
+      <c r="AD19">
         <v>1.32</v>
       </c>
-      <c r="L19">
-        <v>3.4</v>
-      </c>
-      <c r="M19">
-        <v>2.12</v>
-      </c>
-      <c r="N19">
-        <v>1.72</v>
-      </c>
-      <c r="O19">
-        <v>1.44</v>
-      </c>
-      <c r="P19">
-        <v>2.63</v>
-      </c>
-      <c r="Q19">
-        <v>2</v>
-      </c>
-      <c r="R19">
-        <v>1.73</v>
-      </c>
-      <c r="S19">
-        <v>1.06</v>
-      </c>
-      <c r="T19">
-        <v>1.25</v>
-      </c>
-      <c r="U19">
-        <v>2.35</v>
-      </c>
-      <c r="V19">
-        <v>1.44</v>
-      </c>
-      <c r="W19">
-        <v>0.76</v>
-      </c>
-      <c r="X19">
-        <v>1.64</v>
-      </c>
-      <c r="Y19">
-        <v>0.95</v>
-      </c>
-      <c r="Z19">
-        <v>2.59</v>
-      </c>
-      <c r="AA19">
-        <v>1.49</v>
-      </c>
-      <c r="AB19">
-        <v>7.5</v>
-      </c>
-      <c r="AC19">
-        <v>3.3</v>
-      </c>
-      <c r="AD19">
-        <v>1.27</v>
-      </c>
       <c r="AE19">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AF19">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AG19">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="AH19">
-        <v>3.4</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:34">
@@ -2674,560 +2683,560 @@
         <v>44984.70833333334</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F20">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="G20">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H20">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="I20">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="J20">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="K20">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="L20">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="M20">
-        <v>2.15</v>
+        <v>2.13</v>
       </c>
       <c r="N20">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="O20">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P20">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q20">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="S20">
-        <v>1.15</v>
+        <v>1.06</v>
       </c>
       <c r="T20">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U20">
-        <v>2.24</v>
+        <v>2.35</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.44</v>
       </c>
       <c r="W20">
-        <v>0.9</v>
+        <v>0.76</v>
       </c>
       <c r="X20">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="Y20">
-        <v>1.08</v>
+        <v>0.95</v>
       </c>
       <c r="Z20">
-        <v>2.94</v>
+        <v>2.59</v>
       </c>
       <c r="AA20">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AB20">
-        <v>7.25</v>
+        <v>7.5</v>
       </c>
       <c r="AC20">
-        <v>4.33</v>
+        <v>3.3</v>
       </c>
       <c r="AD20">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="AE20">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AF20">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="AG20">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="AH20">
-        <v>3.74</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="21" spans="1:34">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="B21" s="2">
         <v>44984.70833333334</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F21">
-        <v>2.59</v>
+        <v>1.66</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H21">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="I21">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="J21">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="K21">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="L21">
+        <v>2.9</v>
+      </c>
+      <c r="M21">
+        <v>2.25</v>
+      </c>
+      <c r="N21">
+        <v>1.66</v>
+      </c>
+      <c r="O21">
+        <v>1.5</v>
+      </c>
+      <c r="P21">
         <v>2.5</v>
       </c>
-      <c r="M21">
-        <v>2.4</v>
-      </c>
-      <c r="N21">
-        <v>1.5</v>
-      </c>
-      <c r="O21">
-        <v>1.55</v>
-      </c>
-      <c r="P21">
-        <v>2.3</v>
-      </c>
       <c r="Q21">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R21">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="S21">
-        <v>1.4</v>
+        <v>1.15</v>
       </c>
       <c r="T21">
+        <v>1.29</v>
+      </c>
+      <c r="U21">
+        <v>2.24</v>
+      </c>
+      <c r="V21">
+        <v>1.9</v>
+      </c>
+      <c r="W21">
+        <v>0.9</v>
+      </c>
+      <c r="X21">
+        <v>1.86</v>
+      </c>
+      <c r="Y21">
+        <v>1.08</v>
+      </c>
+      <c r="Z21">
+        <v>2.94</v>
+      </c>
+      <c r="AA21">
         <v>1.35</v>
       </c>
-      <c r="U21">
-        <v>1.44</v>
-      </c>
-      <c r="V21">
-        <v>0.5</v>
-      </c>
-      <c r="W21">
-        <v>0.5</v>
-      </c>
-      <c r="X21">
-        <v>0.49</v>
-      </c>
-      <c r="Y21">
-        <v>1.3</v>
-      </c>
-      <c r="Z21">
-        <v>1.79</v>
-      </c>
-      <c r="AA21">
-        <v>1.82</v>
-      </c>
       <c r="AB21">
-        <v>8</v>
+        <v>7.25</v>
       </c>
       <c r="AC21">
-        <v>2.33</v>
+        <v>4.33</v>
       </c>
       <c r="AD21">
-        <v>1.16</v>
+        <v>1.38</v>
       </c>
       <c r="AE21">
-        <v>1.32</v>
+        <v>1.7</v>
       </c>
       <c r="AF21">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="AG21">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="AH21">
-        <v>2.62</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="22" spans="1:34">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B22" s="2">
-        <v>44984.76041666666</v>
+        <v>44984.70833333334</v>
       </c>
       <c r="C22">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F22">
-        <v>3.7</v>
+        <v>2.59</v>
       </c>
       <c r="G22">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H22">
-        <v>1.95</v>
+        <v>2.7</v>
       </c>
       <c r="I22">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="J22">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K22">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="L22">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="M22">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="N22">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O22">
+        <v>1.55</v>
+      </c>
+      <c r="P22">
+        <v>2.3</v>
+      </c>
+      <c r="Q22">
+        <v>2.05</v>
+      </c>
+      <c r="R22">
+        <v>1.68</v>
+      </c>
+      <c r="S22">
         <v>1.4</v>
       </c>
-      <c r="P22">
-        <v>2.75</v>
-      </c>
-      <c r="Q22">
-        <v>1.8</v>
-      </c>
-      <c r="R22">
-        <v>1.95</v>
-      </c>
-      <c r="S22">
-        <v>1.86</v>
-      </c>
       <c r="T22">
+        <v>1.35</v>
+      </c>
+      <c r="U22">
+        <v>1.44</v>
+      </c>
+      <c r="V22">
+        <v>0.5</v>
+      </c>
+      <c r="W22">
+        <v>0.5</v>
+      </c>
+      <c r="X22">
+        <v>0.49</v>
+      </c>
+      <c r="Y22">
         <v>1.3</v>
       </c>
-      <c r="U22">
-        <v>1.27</v>
-      </c>
-      <c r="V22">
-        <v>2.09</v>
-      </c>
-      <c r="W22">
-        <v>2.45</v>
-      </c>
-      <c r="X22">
-        <v>1.48</v>
-      </c>
-      <c r="Y22">
-        <v>1.9</v>
-      </c>
       <c r="Z22">
-        <v>3.38</v>
+        <v>1.79</v>
       </c>
       <c r="AA22">
-        <v>2.44</v>
+        <v>1.82</v>
       </c>
       <c r="AB22">
         <v>8</v>
       </c>
       <c r="AC22">
-        <v>1.75</v>
+        <v>2.33</v>
       </c>
       <c r="AD22">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AE22">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="AF22">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="AG22">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AH22">
-        <v>2.95</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="23" spans="1:34">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2">
-        <v>44984.77083333334</v>
+        <v>44984.76041666666</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F23">
-        <v>2.68</v>
+        <v>3.5</v>
       </c>
       <c r="G23">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H23">
-        <v>2.54</v>
+        <v>1.94</v>
       </c>
       <c r="I23">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="J23">
-        <v>10.75</v>
+        <v>8</v>
       </c>
       <c r="K23">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="L23">
-        <v>3.17</v>
+        <v>3.25</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="N23">
+        <v>1.93</v>
+      </c>
+      <c r="O23">
+        <v>1.4</v>
+      </c>
+      <c r="P23">
+        <v>2.75</v>
+      </c>
+      <c r="Q23">
         <v>1.8</v>
-      </c>
-      <c r="O23">
-        <v>1.42</v>
-      </c>
-      <c r="P23">
-        <v>2.65</v>
-      </c>
-      <c r="Q23">
-        <v>1.75</v>
       </c>
       <c r="R23">
         <v>1.95</v>
       </c>
       <c r="S23">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="T23">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="U23">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="W23">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="X23">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="Y23">
-        <v>1.52</v>
+        <v>1.9</v>
       </c>
       <c r="Z23">
-        <v>3.31</v>
+        <v>3.38</v>
       </c>
       <c r="AA23">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="AB23">
         <v>8</v>
       </c>
       <c r="AC23">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AD23">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AE23">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AF23">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="AG23">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AH23">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="24" spans="1:34">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2">
-        <v>44984.80208333334</v>
+        <v>44984.77083333334</v>
       </c>
       <c r="C24">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F24">
+        <v>2.3</v>
+      </c>
+      <c r="G24">
+        <v>3.3</v>
+      </c>
+      <c r="H24">
+        <v>2.7</v>
+      </c>
+      <c r="I24">
+        <v>1.05</v>
+      </c>
+      <c r="J24">
+        <v>10.75</v>
+      </c>
+      <c r="K24">
+        <v>1.31</v>
+      </c>
+      <c r="L24">
+        <v>3.17</v>
+      </c>
+      <c r="M24">
+        <v>2.03</v>
+      </c>
+      <c r="N24">
+        <v>1.83</v>
+      </c>
+      <c r="O24">
+        <v>1.42</v>
+      </c>
+      <c r="P24">
+        <v>2.65</v>
+      </c>
+      <c r="Q24">
         <v>1.75</v>
       </c>
-      <c r="G24">
-        <v>3.5</v>
-      </c>
-      <c r="H24">
-        <v>4.28</v>
-      </c>
-      <c r="I24">
-        <v>1.08</v>
-      </c>
-      <c r="J24">
-        <v>7</v>
-      </c>
-      <c r="K24">
-        <v>1.36</v>
-      </c>
-      <c r="L24">
-        <v>3</v>
-      </c>
-      <c r="M24">
-        <v>2.1</v>
-      </c>
-      <c r="N24">
-        <v>1.67</v>
-      </c>
-      <c r="O24">
-        <v>1.4</v>
-      </c>
-      <c r="P24">
-        <v>2.75</v>
-      </c>
-      <c r="Q24">
-        <v>2</v>
-      </c>
       <c r="R24">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="S24">
-        <v>1.18</v>
+        <v>1.45</v>
       </c>
       <c r="T24">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>1.45</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>3</v>
       </c>
       <c r="X24">
-        <v>1.87</v>
+        <v>1.79</v>
       </c>
       <c r="Y24">
-        <v>1.31</v>
+        <v>1.52</v>
       </c>
       <c r="Z24">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="AA24">
-        <v>1.51</v>
+        <v>2</v>
       </c>
       <c r="AB24">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AC24">
-        <v>3.07</v>
+        <v>2.05</v>
       </c>
       <c r="AD24">
         <v>1.25</v>
       </c>
       <c r="AE24">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="AF24">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AG24">
-        <v>2.41</v>
+        <v>2.38</v>
       </c>
       <c r="AH24">
-        <v>3.28</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="25" spans="1:34">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2">
-        <v>44984.85416666666</v>
+        <v>44984.80208333334</v>
       </c>
       <c r="C25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E25" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="G25">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="H25">
-        <v>3.76</v>
+        <v>4.28</v>
       </c>
       <c r="I25">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="J25">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K25">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="M25">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="O25">
         <v>1.4</v>
@@ -3236,63 +3245,63 @@
         <v>2.75</v>
       </c>
       <c r="Q25">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S25">
-        <v>1.41</v>
+        <v>1.18</v>
       </c>
       <c r="T25">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>1.87</v>
+      </c>
+      <c r="Y25">
+        <v>1.31</v>
+      </c>
+      <c r="Z25">
+        <v>3.18</v>
+      </c>
+      <c r="AA25">
         <v>1.51</v>
       </c>
-      <c r="V25">
-        <v>1.5</v>
-      </c>
-      <c r="W25">
-        <v>0.5</v>
-      </c>
-      <c r="X25">
-        <v>2.31</v>
-      </c>
-      <c r="Y25">
-        <v>1.56</v>
-      </c>
-      <c r="Z25">
-        <v>3.87</v>
-      </c>
-      <c r="AA25">
-        <v>1.75</v>
-      </c>
       <c r="AB25">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AC25">
-        <v>2.44</v>
+        <v>3.07</v>
       </c>
       <c r="AD25">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AE25">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="AF25">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AG25">
-        <v>2.65</v>
+        <v>2.41</v>
       </c>
       <c r="AH25">
-        <v>3.75</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="26" spans="1:34">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2">
         <v>44984.85416666666</v>
@@ -3301,25 +3310,25 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F26">
-        <v>3.02</v>
+        <v>1.95</v>
       </c>
       <c r="G26">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="H26">
-        <v>2.11</v>
+        <v>3.8</v>
       </c>
       <c r="I26">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="J26">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="K26">
         <v>1.33</v>
@@ -3328,7 +3337,7 @@
         <v>3.25</v>
       </c>
       <c r="M26">
-        <v>1.91</v>
+        <v>2.03</v>
       </c>
       <c r="N26">
         <v>1.83</v>
@@ -3340,161 +3349,265 @@
         <v>2.75</v>
       </c>
       <c r="Q26">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R26">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S26">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
       <c r="T26">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U26">
-        <v>1.4</v>
+        <v>1.51</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W26">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="X26">
-        <v>1.77</v>
+        <v>2.31</v>
       </c>
       <c r="Y26">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="Z26">
-        <v>3.28</v>
+        <v>3.87</v>
       </c>
       <c r="AA26">
-        <v>1.97</v>
+        <v>1.75</v>
       </c>
       <c r="AB26">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AC26">
-        <v>2.22</v>
+        <v>2.44</v>
       </c>
       <c r="AD26">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="AE26">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AF26">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="AG26">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="AH26">
-        <v>3.84</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="27" spans="1:34">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2">
-        <v>44984.875</v>
+        <v>44984.85416666666</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F27">
-        <v>3.24</v>
+        <v>3.2</v>
       </c>
       <c r="G27">
-        <v>3.22</v>
+        <v>3.4</v>
       </c>
       <c r="H27">
         <v>2.2</v>
       </c>
       <c r="I27">
+        <v>1.06</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>1.33</v>
+      </c>
+      <c r="L27">
+        <v>3.25</v>
+      </c>
+      <c r="M27">
+        <v>1.93</v>
+      </c>
+      <c r="N27">
+        <v>1.93</v>
+      </c>
+      <c r="O27">
+        <v>1.4</v>
+      </c>
+      <c r="P27">
+        <v>2.75</v>
+      </c>
+      <c r="Q27">
+        <v>1.73</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>1.57</v>
+      </c>
+      <c r="T27">
+        <v>1.3</v>
+      </c>
+      <c r="U27">
+        <v>1.4</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+      <c r="X27">
+        <v>1.77</v>
+      </c>
+      <c r="Y27">
+        <v>1.51</v>
+      </c>
+      <c r="Z27">
+        <v>3.28</v>
+      </c>
+      <c r="AA27">
+        <v>1.97</v>
+      </c>
+      <c r="AB27">
+        <v>7.4</v>
+      </c>
+      <c r="AC27">
+        <v>2.22</v>
+      </c>
+      <c r="AD27">
+        <v>1.32</v>
+      </c>
+      <c r="AE27">
+        <v>1.61</v>
+      </c>
+      <c r="AF27">
+        <v>2.08</v>
+      </c>
+      <c r="AG27">
+        <v>2.72</v>
+      </c>
+      <c r="AH27">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44984.875</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F28">
+        <v>3.1</v>
+      </c>
+      <c r="G28">
+        <v>3.2</v>
+      </c>
+      <c r="H28">
+        <v>2.15</v>
+      </c>
+      <c r="I28">
         <v>1.08</v>
       </c>
-      <c r="J27">
+      <c r="J28">
         <v>7</v>
       </c>
-      <c r="K27">
+      <c r="K28">
         <v>1.4</v>
       </c>
-      <c r="L27">
+      <c r="L28">
         <v>2.75</v>
       </c>
-      <c r="M27">
+      <c r="M28">
         <v>2.15</v>
       </c>
-      <c r="N27">
+      <c r="N28">
         <v>1.73</v>
       </c>
-      <c r="O27">
+      <c r="O28">
         <v>1.44</v>
       </c>
-      <c r="P27">
+      <c r="P28">
         <v>2.55</v>
       </c>
-      <c r="Q27">
+      <c r="Q28">
         <v>1.9</v>
       </c>
-      <c r="R27">
+      <c r="R28">
         <v>1.78</v>
       </c>
-      <c r="S27">
+      <c r="S28">
         <v>1.67</v>
       </c>
-      <c r="T27">
+      <c r="T28">
         <v>1.33</v>
       </c>
-      <c r="U27">
+      <c r="U28">
         <v>1.25</v>
       </c>
-      <c r="V27">
+      <c r="V28">
         <v>1</v>
       </c>
-      <c r="W27">
+      <c r="W28">
         <v>0.5</v>
       </c>
-      <c r="X27">
+      <c r="X28">
         <v>1.18</v>
       </c>
-      <c r="Y27">
+      <c r="Y28">
         <v>1.34</v>
       </c>
-      <c r="Z27">
+      <c r="Z28">
         <v>2.52</v>
       </c>
-      <c r="AA27">
+      <c r="AA28">
         <v>2.4</v>
       </c>
-      <c r="AB27">
+      <c r="AB28">
         <v>8</v>
       </c>
-      <c r="AC27">
+      <c r="AC28">
         <v>1.73</v>
       </c>
-      <c r="AD27">
+      <c r="AD28">
         <v>1.25</v>
       </c>
-      <c r="AE27">
+      <c r="AE28">
         <v>1.47</v>
       </c>
-      <c r="AF27">
+      <c r="AF28">
         <v>1.83</v>
       </c>
-      <c r="AG27">
+      <c r="AG28">
         <v>2.38</v>
       </c>
-      <c r="AH27">
+      <c r="AH28">
         <v>3.25</v>
       </c>
     </row>
